--- a/Advanced/DepartmentReport/template/departments.xlsx
+++ b/Advanced/DepartmentReport/template/departments.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr showPivotChartFilter="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\TemplaterExamples\Advanced\DepartmentReport\template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F104B1-8401-48FD-8AE0-533C374DB4E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9780" yWindow="1530" windowWidth="17295" windowHeight="10695" activeTab="1"/>
+    <workbookView xWindow="29550" yWindow="750" windowWidth="24705" windowHeight="14490" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -15,10 +21,18 @@
     <definedName name="epic">'{{department.code}}'!$C$6:$N$6</definedName>
     <definedName name="team">'{{department.code}}'!$A$4:$P$8</definedName>
   </definedNames>
-  <calcPr calcId="125725" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId4"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -58,24 +72,9 @@
     <t>Lead: [[department.team.lead]]</t>
   </si>
   <si>
-    <t>[[department.team.project.name]]</t>
-  </si>
-  <si>
-    <t>[[department.team.project.epic.name]]</t>
-  </si>
-  <si>
     <t>[[department.name]]</t>
   </si>
   <si>
-    <t>[[department.team.project.epic.task.id]]</t>
-  </si>
-  <si>
-    <t>[[department.team.project.epic.task.estimated]]</t>
-  </si>
-  <si>
-    <t>[[department.team.project.epic.task.spent]]</t>
-  </si>
-  <si>
     <t>Estimate</t>
   </si>
   <si>
@@ -119,17 +118,32 @@
   </si>
   <si>
     <t>Sum of Days</t>
+  </si>
+  <si>
+    <t>[[project.name]]</t>
+  </si>
+  <si>
+    <t>[[project.epic.name]]</t>
+  </si>
+  <si>
+    <t>[[project.epic.task.id]]</t>
+  </si>
+  <si>
+    <t>[[project.epic.task.estimated]]</t>
+  </si>
+  <si>
+    <t>[[project.epic.task.spent]]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00&quot; md&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,6 +479,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -502,36 +546,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -565,24 +579,52 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="hr-HR"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:pivotSource>
     <c:name>[departments.xlsx]Summary!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
@@ -592,8 +634,19 @@
       </c:pivotFmt>
     </c:pivotFmts>
     <c:view3D>
-      <c:perspective val="30"/>
+      <c:rotX val="15"/>
+      <c:rotY val="0"/>
+      <c:rAngAx val="0"/>
     </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:pie3DChart>
@@ -643,13 +696,30 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-78CB-4884-A96F-564D6D8FEEA6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
       </c:pie3DChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -676,7 +746,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -695,7 +771,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Rikard Pavelic" refreshedDate="43336.938838078706" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Rikard Pavelic" refreshedDate="44125.896423148151" createdVersion="3" refreshedVersion="6" minRefreshableVersion="3" recordCount="1" xr:uid="{00000000-000A-0000-FFFF-FFFF0E000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="total[#All]"/>
   </cacheSource>
@@ -723,11 +799,16 @@
       <sharedItems/>
     </cacheField>
   </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
 </pivotCacheDefinition>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -740,7 +821,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B8:C11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -793,19 +874,24 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="total" displayName="total" ref="A1:F2" totalsRowShown="0">
-  <autoFilter ref="A1:F2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="total" displayName="total" ref="A1:F2" totalsRowShown="0">
+  <autoFilter ref="A1:F2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Department"/>
-    <tableColumn id="2" name="Team"/>
-    <tableColumn id="3" name="Project"/>
-    <tableColumn id="4" name="Epic"/>
-    <tableColumn id="5" name="Task"/>
-    <tableColumn id="6" name="Days"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Department"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Team"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Project"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Epic"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Task"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Days"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -854,7 +940,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -886,9 +972,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -920,6 +1024,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1095,12 +1217,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
@@ -1108,12 +1232,12 @@
     <col min="4" max="4" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1125,27 +1249,27 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1157,14 +1281,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:ALZ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" style="10" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" style="10" customWidth="1"/>
@@ -1185,51 +1309,51 @@
     <col min="17" max="1014" width="7.7109375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1014" s="1" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A1" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
+    <row r="1" spans="1:1014" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
       <c r="ALZ1" s="2"/>
     </row>
-    <row r="2" spans="1:1014" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:1014" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
       <c r="ALZ2" s="4"/>
     </row>
-    <row r="3" spans="1:1014" s="8" customFormat="1" ht="12.4" customHeight="1">
+    <row r="3" spans="1:1014" s="8" customFormat="1" ht="12.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1247,111 +1371,111 @@
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
     </row>
-    <row r="4" spans="1:1014" s="8" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:1014" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-    </row>
-    <row r="5" spans="1:1014" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="40" t="s">
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+    </row>
+    <row r="5" spans="1:1014" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="41" t="s">
+      <c r="D5" s="27"/>
+      <c r="E5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="40" t="s">
+      <c r="F5" s="28"/>
+      <c r="G5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28" t="s">
+      <c r="H5" s="27"/>
+      <c r="I5" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="37"/>
+      <c r="K5" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="29" t="s">
+      <c r="N5" s="38"/>
+      <c r="O5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="29"/>
-    </row>
-    <row r="6" spans="1:1014" ht="25.5" customHeight="1">
-      <c r="A6" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34">
+      <c r="P5" s="39"/>
+    </row>
+    <row r="6" spans="1:1014" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44">
         <f>SUM(K6)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="43"/>
-      <c r="M6" s="44" t="e">
+      <c r="F6" s="44"/>
+      <c r="G6" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="26"/>
+      <c r="K6" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="30"/>
+      <c r="M6" s="31" t="e">
         <f>SUM(K6:K6)/SUM(I6:I6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44" t="e">
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="e">
         <f>SUM(K6:K6)/SUM(I6:I6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P6" s="44"/>
-    </row>
-    <row r="7" spans="1:1014" s="14" customFormat="1" ht="15" customHeight="1">
+      <c r="P6" s="31"/>
+    </row>
+    <row r="7" spans="1:1014" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="22">
+      <c r="E7" s="32">
         <f>SUM(E6:E6)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="12"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -1364,16 +1488,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:P2"/>
@@ -1386,6 +1500,16 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
   </mergeCells>
   <conditionalFormatting sqref="M6:P6">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
@@ -1403,8 +1527,8 @@
   <conditionalFormatting sqref="K6:L6">
     <cfRule type="dataBar" priority="1">
       <dataBar>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -1415,14 +1539,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
@@ -1430,9 +1554,9 @@
     <col min="12" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="45" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
@@ -1445,7 +1569,7 @@
       <c r="K2" s="45"/>
       <c r="L2" s="45"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
       <c r="D3" s="45"/>
@@ -1458,7 +1582,7 @@
       <c r="K3" s="45"/>
       <c r="L3" s="45"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
       <c r="D4" s="45"/>
@@ -1471,7 +1595,7 @@
       <c r="K4" s="45"/>
       <c r="L4" s="45"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="45"/>
       <c r="C5" s="45"/>
       <c r="D5" s="45"/>
@@ -1484,7 +1608,7 @@
       <c r="K5" s="45"/>
       <c r="L5" s="45"/>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="45"/>
       <c r="C6" s="45"/>
       <c r="D6" s="45"/>
@@ -1497,33 +1621,33 @@
       <c r="K6" s="45"/>
       <c r="L6" s="45"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C9" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C10" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C11" s="20">
         <v>0</v>
@@ -1536,4 +1660,25 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<templater-settings>
+  <search-setup advanced="0" values="0" only-active="1">
+    <category show="0"/>
+    <type show="0"/>
+    <example show="0"/>
+    <description show="0"/>
+  </search-setup>
+  <aliases>
+    <prefix alias="project">department.team.project:sort(name)</prefix>
+  </aliases>
+  <schema/>
+</templater-settings>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7272C953-8867-4D77-8379-B31DF94FD025}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
--- a/Advanced/DepartmentReport/template/departments.xlsx
+++ b/Advanced/DepartmentReport/template/departments.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr showPivotChartFilter="1" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\TemplaterExamples\Advanced\DepartmentReport\template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F104B1-8401-48FD-8AE0-533C374DB4E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29550" yWindow="750" windowWidth="24705" windowHeight="14490" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29550" yWindow="750" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
     <sheet name="{{department.code}}" sheetId="3" r:id="rId2"/>
     <sheet name="Summary" sheetId="1" r:id="rId3"/>
+    <sheet name="Late tasks" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="epic">'{{department.code}}'!$C$6:$N$6</definedName>
     <definedName name="team">'{{department.code}}'!$A$4:$P$8</definedName>
   </definedNames>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="4" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>Head</t>
   </si>
@@ -133,12 +128,30 @@
   </si>
   <si>
     <t>[[project.epic.task.spent]]</t>
+  </si>
+  <si>
+    <t>Estimated</t>
+  </si>
+  <si>
+    <t>[[flatten:filter(task.estimated*2 &lt; task.spent).department.name]]</t>
+  </si>
+  <si>
+    <t>[[flatten:filter(task.estimated*2 &lt; task.spent).team.name]]</t>
+  </si>
+  <si>
+    <t>[[flatten:filter(task.estimated*2 &lt; task.spent).task.id]]</t>
+  </si>
+  <si>
+    <t>[[flatten:filter(task.estimated*2 &lt; task.spent).task.estimated]]</t>
+  </si>
+  <si>
+    <t>[[flatten:filter(task.estimated*2 &lt; task.spent).task.spent]]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00&quot; md&quot;"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -559,13 +572,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFF3B3"/>
         </patternFill>
       </fill>
@@ -574,6 +580,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFBBB3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -591,7 +604,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -618,13 +631,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
@@ -637,6 +643,7 @@
       <c:rotX val="15"/>
       <c:rotY val="0"/>
       <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -696,7 +703,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-78CB-4884-A96F-564D6D8FEEA6}"/>
             </c:ext>
@@ -749,7 +756,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -771,7 +778,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Rikard Pavelic" refreshedDate="44125.896423148151" createdVersion="3" refreshedVersion="6" minRefreshableVersion="3" recordCount="1" xr:uid="{00000000-000A-0000-FFFF-FFFF0E000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Rikard Pavelic" refreshedDate="44556.4723443287" createdVersion="3" refreshedVersion="4" minRefreshableVersion="3" recordCount="1">
   <cacheSource type="worksheet">
     <worksheetSource name="total[#All]"/>
   </cacheSource>
@@ -808,7 +815,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -821,7 +828,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B8:C11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -883,15 +890,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="total" displayName="total" ref="A1:F2" totalsRowShown="0">
-  <autoFilter ref="A1:F2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="total" displayName="total" ref="A1:F2" totalsRowShown="0">
+  <autoFilter ref="A1:F2"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Department"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Team"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Project"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Epic"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Task"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Days"/>
+    <tableColumn id="1" name="Department"/>
+    <tableColumn id="2" name="Team"/>
+    <tableColumn id="3" name="Project"/>
+    <tableColumn id="4" name="Epic"/>
+    <tableColumn id="5" name="Task"/>
+    <tableColumn id="6" name="Days"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E2" totalsRowShown="0">
+  <autoFilter ref="A1:E2"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Department"/>
+    <tableColumn id="2" name="Team"/>
+    <tableColumn id="3" name="Task"/>
+    <tableColumn id="4" name="Estimated"/>
+    <tableColumn id="5" name="Spent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -940,7 +961,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -973,26 +994,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1025,23 +1029,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1217,7 +1204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1281,11 +1268,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ALZ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,16 +1499,16 @@
     <mergeCell ref="O6:P6"/>
   </mergeCells>
   <conditionalFormatting sqref="M6:P6">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
+      <formula>0</formula>
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="between">
       <formula>1</formula>
       <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="between">
-      <formula>0</formula>
-      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:L6">
@@ -1539,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1662,8 +1649,67 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<templater-settings>
+<templater-settings version="6.1.0.18635">
   <search-setup advanced="0" values="0" only-active="1">
     <category show="0"/>
     <type show="0"/>
@@ -1678,7 +1724,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7272C953-8867-4D77-8379-B31DF94FD025}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE562B65-DBB3-452A-AB95-918EE561D7A6}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>